--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Tgfb1-Tgfbr3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Tgfb1-Tgfbr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>47.5185264413788</v>
+        <v>48.746633</v>
       </c>
       <c r="H2">
-        <v>47.5185264413788</v>
+        <v>146.239899</v>
       </c>
       <c r="I2">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="J2">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>32.3859284200861</v>
+        <v>32.56613966666666</v>
       </c>
       <c r="N2">
-        <v>32.3859284200861</v>
+        <v>97.698419</v>
       </c>
       <c r="O2">
-        <v>0.422429368074554</v>
+        <v>0.4203775945150413</v>
       </c>
       <c r="P2">
-        <v>0.422429368074554</v>
+        <v>0.4203775945150412</v>
       </c>
       <c r="Q2">
-        <v>1538.931595958463</v>
+        <v>1587.489658557742</v>
       </c>
       <c r="R2">
-        <v>1538.931595958463</v>
+        <v>14287.40692701968</v>
       </c>
       <c r="S2">
-        <v>0.06504078053597045</v>
+        <v>0.06513291860910754</v>
       </c>
       <c r="T2">
-        <v>0.06504078053597045</v>
+        <v>0.06513291860910751</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>47.5185264413788</v>
+        <v>48.746633</v>
       </c>
       <c r="H3">
-        <v>47.5185264413788</v>
+        <v>146.239899</v>
       </c>
       <c r="I3">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="J3">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>40.5667109899196</v>
+        <v>40.85529333333333</v>
       </c>
       <c r="N3">
-        <v>40.5667109899196</v>
+        <v>122.56588</v>
       </c>
       <c r="O3">
-        <v>0.5291362923443786</v>
+        <v>0.5273775188114274</v>
       </c>
       <c r="P3">
-        <v>0.5291362923443786</v>
+        <v>0.5273775188114271</v>
       </c>
       <c r="Q3">
-        <v>1927.670328814267</v>
+        <v>1991.557990227346</v>
       </c>
       <c r="R3">
-        <v>1927.670328814267</v>
+        <v>17924.02191204612</v>
       </c>
       <c r="S3">
-        <v>0.0814702766070798</v>
+        <v>0.0817113886591516</v>
       </c>
       <c r="T3">
-        <v>0.0814702766070798</v>
+        <v>0.08171138865915156</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>47.5185264413788</v>
+        <v>48.746633</v>
       </c>
       <c r="H4">
-        <v>47.5185264413788</v>
+        <v>146.239899</v>
       </c>
       <c r="I4">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="J4">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.0395147597941582</v>
+        <v>0.03779266666666666</v>
       </c>
       <c r="N4">
-        <v>0.0395147597941582</v>
+        <v>0.113378</v>
       </c>
       <c r="O4">
-        <v>0.0005154150528879501</v>
+        <v>0.0004878438300104565</v>
       </c>
       <c r="P4">
-        <v>0.0005154150528879501</v>
+        <v>0.0004878438300104564</v>
       </c>
       <c r="Q4">
-        <v>1.877683158103439</v>
+        <v>1.842265252091333</v>
       </c>
       <c r="R4">
-        <v>1.877683158103439</v>
+        <v>16.580387268822</v>
       </c>
       <c r="S4">
-        <v>7.935763910691062E-05</v>
+        <v>7.558607520622615E-05</v>
       </c>
       <c r="T4">
-        <v>7.935763910691062E-05</v>
+        <v>7.558607520622614E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>47.5185264413788</v>
+        <v>48.746633</v>
       </c>
       <c r="H5">
-        <v>47.5185264413788</v>
+        <v>146.239899</v>
       </c>
       <c r="I5">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="J5">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.67374755881848</v>
+        <v>0.07240166666666666</v>
       </c>
       <c r="N5">
-        <v>3.67374755881848</v>
+        <v>0.217205</v>
       </c>
       <c r="O5">
-        <v>0.04791892452817939</v>
+        <v>0.0009345915353721286</v>
       </c>
       <c r="P5">
-        <v>0.04791892452817939</v>
+        <v>0.0009345915353721284</v>
       </c>
       <c r="Q5">
-        <v>174.5710705126668</v>
+        <v>3.529337473588332</v>
       </c>
       <c r="R5">
-        <v>174.5710705126668</v>
+        <v>31.76403726229499</v>
       </c>
       <c r="S5">
-        <v>0.007378000890333429</v>
+        <v>0.0001448047545835025</v>
       </c>
       <c r="T5">
-        <v>0.007378000890333429</v>
+        <v>0.0001448047545835025</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.8969952578389</v>
+        <v>48.746633</v>
       </c>
       <c r="H6">
-        <v>17.8969952578389</v>
+        <v>146.239899</v>
       </c>
       <c r="I6">
-        <v>0.05798942457836823</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="J6">
-        <v>0.05798942457836823</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>32.3859284200861</v>
+        <v>3.937153333333333</v>
       </c>
       <c r="N6">
-        <v>32.3859284200861</v>
+        <v>11.81146</v>
       </c>
       <c r="O6">
-        <v>0.422429368074554</v>
+        <v>0.05082245130814891</v>
       </c>
       <c r="P6">
-        <v>0.422429368074554</v>
+        <v>0.05082245130814889</v>
       </c>
       <c r="Q6">
-        <v>579.610807354991</v>
+        <v>191.9229686047266</v>
       </c>
       <c r="R6">
-        <v>579.610807354991</v>
+        <v>1727.30671744254</v>
       </c>
       <c r="S6">
-        <v>0.0244964359796471</v>
+        <v>0.007874383953283106</v>
       </c>
       <c r="T6">
-        <v>0.0244964359796471</v>
+        <v>0.007874383953283104</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.8969952578389</v>
+        <v>18.65566266666667</v>
       </c>
       <c r="H7">
-        <v>17.8969952578389</v>
+        <v>55.966988</v>
       </c>
       <c r="I7">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958762</v>
       </c>
       <c r="J7">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958761</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>40.5667109899196</v>
+        <v>32.56613966666666</v>
       </c>
       <c r="N7">
-        <v>40.5667109899196</v>
+        <v>97.698419</v>
       </c>
       <c r="O7">
-        <v>0.5291362923443786</v>
+        <v>0.4203775945150413</v>
       </c>
       <c r="P7">
-        <v>0.5291362923443786</v>
+        <v>0.4203775945150412</v>
       </c>
       <c r="Q7">
-        <v>726.0222342127122</v>
+        <v>607.5429159768858</v>
       </c>
       <c r="R7">
-        <v>726.0222342127122</v>
+        <v>5467.886243791972</v>
       </c>
       <c r="S7">
-        <v>0.03068430911658175</v>
+        <v>0.02492680382800934</v>
       </c>
       <c r="T7">
-        <v>0.03068430911658175</v>
+        <v>0.02492680382800933</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.8969952578389</v>
+        <v>18.65566266666667</v>
       </c>
       <c r="H8">
-        <v>17.8969952578389</v>
+        <v>55.966988</v>
       </c>
       <c r="I8">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958762</v>
       </c>
       <c r="J8">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958761</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0395147597941582</v>
+        <v>40.85529333333333</v>
       </c>
       <c r="N8">
-        <v>0.0395147597941582</v>
+        <v>122.56588</v>
       </c>
       <c r="O8">
-        <v>0.0005154150528879501</v>
+        <v>0.5273775188114274</v>
       </c>
       <c r="P8">
-        <v>0.0005154150528879501</v>
+        <v>0.5273775188114271</v>
       </c>
       <c r="Q8">
-        <v>0.7071954686506925</v>
+        <v>762.1825705743822</v>
       </c>
       <c r="R8">
-        <v>0.7071954686506925</v>
+        <v>6859.64313516944</v>
       </c>
       <c r="S8">
-        <v>2.988862233600145E-05</v>
+        <v>0.03127149526101679</v>
       </c>
       <c r="T8">
-        <v>2.988862233600145E-05</v>
+        <v>0.03127149526101678</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.8969952578389</v>
+        <v>18.65566266666667</v>
       </c>
       <c r="H9">
-        <v>17.8969952578389</v>
+        <v>55.966988</v>
       </c>
       <c r="I9">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958762</v>
       </c>
       <c r="J9">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958761</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>3.67374755881848</v>
+        <v>0.03779266666666666</v>
       </c>
       <c r="N9">
-        <v>3.67374755881848</v>
+        <v>0.113378</v>
       </c>
       <c r="O9">
-        <v>0.04791892452817939</v>
+        <v>0.0004878438300104565</v>
       </c>
       <c r="P9">
-        <v>0.04791892452817939</v>
+        <v>0.0004878438300104564</v>
       </c>
       <c r="Q9">
-        <v>65.74904263867157</v>
+        <v>0.7050472406071111</v>
       </c>
       <c r="R9">
-        <v>65.74904263867157</v>
+        <v>6.345425165463999</v>
       </c>
       <c r="S9">
-        <v>0.002778790859803378</v>
+        <v>2.892729681134392E-05</v>
       </c>
       <c r="T9">
-        <v>0.002778790859803378</v>
+        <v>2.892729681134391E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>97.38132242466099</v>
+        <v>18.65566266666667</v>
       </c>
       <c r="H10">
-        <v>97.38132242466099</v>
+        <v>55.966988</v>
       </c>
       <c r="I10">
-        <v>0.3155326785714607</v>
+        <v>0.05929622356958762</v>
       </c>
       <c r="J10">
-        <v>0.3155326785714607</v>
+        <v>0.05929622356958761</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.3859284200861</v>
+        <v>0.07240166666666666</v>
       </c>
       <c r="N10">
-        <v>32.3859284200861</v>
+        <v>0.217205</v>
       </c>
       <c r="O10">
-        <v>0.422429368074554</v>
+        <v>0.0009345915353721286</v>
       </c>
       <c r="P10">
-        <v>0.422429368074554</v>
+        <v>0.0009345915353721284</v>
       </c>
       <c r="Q10">
-        <v>3153.784537498397</v>
+        <v>1.350701069837778</v>
       </c>
       <c r="R10">
-        <v>3153.784537498397</v>
+        <v>12.15630962854</v>
       </c>
       <c r="S10">
-        <v>0.1332902700158135</v>
+        <v>5.541774862766989E-05</v>
       </c>
       <c r="T10">
-        <v>0.1332902700158135</v>
+        <v>5.541774862766987E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>97.38132242466099</v>
+        <v>18.65566266666667</v>
       </c>
       <c r="H11">
-        <v>97.38132242466099</v>
+        <v>55.966988</v>
       </c>
       <c r="I11">
-        <v>0.3155326785714607</v>
+        <v>0.05929622356958762</v>
       </c>
       <c r="J11">
-        <v>0.3155326785714607</v>
+        <v>0.05929622356958761</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>40.5667109899196</v>
+        <v>3.937153333333333</v>
       </c>
       <c r="N11">
-        <v>40.5667109899196</v>
+        <v>11.81146</v>
       </c>
       <c r="O11">
-        <v>0.5291362923443786</v>
+        <v>0.05082245130814891</v>
       </c>
       <c r="P11">
-        <v>0.5291362923443786</v>
+        <v>0.05082245130814889</v>
       </c>
       <c r="Q11">
-        <v>3950.439962617399</v>
+        <v>73.45020445360889</v>
       </c>
       <c r="R11">
-        <v>3950.439962617399</v>
+        <v>661.05184008248</v>
       </c>
       <c r="S11">
-        <v>0.1669597916527933</v>
+        <v>0.003013579435122478</v>
       </c>
       <c r="T11">
-        <v>0.1669597916527933</v>
+        <v>0.003013579435122477</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>97.38132242466099</v>
+        <v>97.66137466666667</v>
       </c>
       <c r="H12">
-        <v>97.38132242466099</v>
+        <v>292.984124</v>
       </c>
       <c r="I12">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="J12">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.0395147597941582</v>
+        <v>32.56613966666666</v>
       </c>
       <c r="N12">
-        <v>0.0395147597941582</v>
+        <v>97.698419</v>
       </c>
       <c r="O12">
-        <v>0.0005154150528879501</v>
+        <v>0.4203775945150413</v>
       </c>
       <c r="P12">
-        <v>0.0005154150528879501</v>
+        <v>0.4203775945150412</v>
       </c>
       <c r="Q12">
-        <v>3.847999564047951</v>
+        <v>3180.453967433329</v>
       </c>
       <c r="R12">
-        <v>3.847999564047951</v>
+        <v>28624.08570689996</v>
       </c>
       <c r="S12">
-        <v>0.0001626302922137859</v>
+        <v>0.1304904559750323</v>
       </c>
       <c r="T12">
-        <v>0.0001626302922137859</v>
+        <v>0.1304904559750323</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>97.38132242466099</v>
+        <v>97.66137466666667</v>
       </c>
       <c r="H13">
-        <v>97.38132242466099</v>
+        <v>292.984124</v>
       </c>
       <c r="I13">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="J13">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.67374755881848</v>
+        <v>40.85529333333333</v>
       </c>
       <c r="N13">
-        <v>3.67374755881848</v>
+        <v>122.56588</v>
       </c>
       <c r="O13">
-        <v>0.04791892452817939</v>
+        <v>0.5273775188114274</v>
       </c>
       <c r="P13">
-        <v>0.04791892452817939</v>
+        <v>0.5273775188114271</v>
       </c>
       <c r="Q13">
-        <v>357.7543955321136</v>
+        <v>3989.984109343236</v>
       </c>
       <c r="R13">
-        <v>357.7543955321136</v>
+        <v>35909.85698408912</v>
       </c>
       <c r="S13">
-        <v>0.01511998661064011</v>
+        <v>0.1637045689365873</v>
       </c>
       <c r="T13">
-        <v>0.01511998661064011</v>
+        <v>0.1637045689365873</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>136.873918857693</v>
+        <v>97.66137466666667</v>
       </c>
       <c r="H14">
-        <v>136.873918857693</v>
+        <v>292.984124</v>
       </c>
       <c r="I14">
-        <v>0.4434956639365127</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="J14">
-        <v>0.4434956639365127</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>32.3859284200861</v>
+        <v>0.03779266666666666</v>
       </c>
       <c r="N14">
-        <v>32.3859284200861</v>
+        <v>0.113378</v>
       </c>
       <c r="O14">
-        <v>0.422429368074554</v>
+        <v>0.0004878438300104565</v>
       </c>
       <c r="P14">
-        <v>0.422429368074554</v>
+        <v>0.0004878438300104564</v>
       </c>
       <c r="Q14">
-        <v>4432.78893870192</v>
+        <v>3.690883778985778</v>
       </c>
       <c r="R14">
-        <v>4432.78893870192</v>
+        <v>33.217954010872</v>
       </c>
       <c r="S14">
-        <v>0.1873455930605058</v>
+        <v>0.0001514328181455753</v>
       </c>
       <c r="T14">
-        <v>0.1873455930605058</v>
+        <v>0.0001514328181455752</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>136.873918857693</v>
+        <v>97.66137466666667</v>
       </c>
       <c r="H15">
-        <v>136.873918857693</v>
+        <v>292.984124</v>
       </c>
       <c r="I15">
-        <v>0.4434956639365127</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="J15">
-        <v>0.4434956639365127</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>40.5667109899196</v>
+        <v>0.07240166666666666</v>
       </c>
       <c r="N15">
-        <v>40.5667109899196</v>
+        <v>0.217205</v>
       </c>
       <c r="O15">
-        <v>0.5291362923443786</v>
+        <v>0.0009345915353721286</v>
       </c>
       <c r="P15">
-        <v>0.5291362923443786</v>
+        <v>0.0009345915353721284</v>
       </c>
       <c r="Q15">
-        <v>5552.524708357739</v>
+        <v>7.070846294824444</v>
       </c>
       <c r="R15">
-        <v>5552.524708357739</v>
+        <v>63.63761665342</v>
       </c>
       <c r="S15">
-        <v>0.2346696512861749</v>
+        <v>0.0002901088858977021</v>
       </c>
       <c r="T15">
-        <v>0.2346696512861749</v>
+        <v>0.0002901088858977021</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>136.873918857693</v>
+        <v>97.66137466666667</v>
       </c>
       <c r="H16">
-        <v>136.873918857693</v>
+        <v>292.984124</v>
       </c>
       <c r="I16">
-        <v>0.4434956639365127</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="J16">
-        <v>0.4434956639365127</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.0395147597941582</v>
+        <v>3.937153333333333</v>
       </c>
       <c r="N16">
-        <v>0.0395147597941582</v>
+        <v>11.81146</v>
       </c>
       <c r="O16">
-        <v>0.0005154150528879501</v>
+        <v>0.05082245130814891</v>
       </c>
       <c r="P16">
-        <v>0.0005154150528879501</v>
+        <v>0.05082245130814889</v>
       </c>
       <c r="Q16">
-        <v>5.40854002574684</v>
+        <v>384.5078068067822</v>
       </c>
       <c r="R16">
-        <v>5.40854002574684</v>
+        <v>3460.57026126104</v>
       </c>
       <c r="S16">
-        <v>0.0002285843410834142</v>
+        <v>0.01577592367314414</v>
       </c>
       <c r="T16">
-        <v>0.0002285843410834142</v>
+        <v>0.01577592367314413</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>136.873918857693</v>
+        <v>138.7199146666667</v>
       </c>
       <c r="H17">
-        <v>136.873918857693</v>
+        <v>416.159744</v>
       </c>
       <c r="I17">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="J17">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.67374755881848</v>
+        <v>32.56613966666666</v>
       </c>
       <c r="N17">
-        <v>3.67374755881848</v>
+        <v>97.698419</v>
       </c>
       <c r="O17">
-        <v>0.04791892452817939</v>
+        <v>0.4203775945150413</v>
       </c>
       <c r="P17">
-        <v>0.04791892452817939</v>
+        <v>0.4203775945150412</v>
       </c>
       <c r="Q17">
-        <v>502.8402252693684</v>
+        <v>4517.572115582749</v>
       </c>
       <c r="R17">
-        <v>502.8402252693684</v>
+        <v>40658.14904024474</v>
       </c>
       <c r="S17">
-        <v>0.02125183524874856</v>
+        <v>0.1853509125737227</v>
       </c>
       <c r="T17">
-        <v>0.02125183524874856</v>
+        <v>0.1853509125737226</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.95439389772258</v>
+        <v>138.7199146666667</v>
       </c>
       <c r="H18">
-        <v>8.95439389772258</v>
+        <v>416.159744</v>
       </c>
       <c r="I18">
-        <v>0.02901381724116778</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="J18">
-        <v>0.02901381724116778</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>32.3859284200861</v>
+        <v>40.85529333333333</v>
       </c>
       <c r="N18">
-        <v>32.3859284200861</v>
+        <v>122.56588</v>
       </c>
       <c r="O18">
-        <v>0.422429368074554</v>
+        <v>0.5273775188114274</v>
       </c>
       <c r="P18">
-        <v>0.422429368074554</v>
+        <v>0.5273775188114271</v>
       </c>
       <c r="Q18">
-        <v>289.9963598168993</v>
+        <v>5667.442804881635</v>
       </c>
       <c r="R18">
-        <v>289.9963598168993</v>
+        <v>51006.98524393472</v>
       </c>
       <c r="S18">
-        <v>0.0122562884826171</v>
+        <v>0.2325288161357185</v>
       </c>
       <c r="T18">
-        <v>0.0122562884826171</v>
+        <v>0.2325288161357184</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.95439389772258</v>
+        <v>138.7199146666667</v>
       </c>
       <c r="H19">
-        <v>8.95439389772258</v>
+        <v>416.159744</v>
       </c>
       <c r="I19">
-        <v>0.02901381724116778</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="J19">
-        <v>0.02901381724116778</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>40.5667109899196</v>
+        <v>0.03779266666666666</v>
       </c>
       <c r="N19">
-        <v>40.5667109899196</v>
+        <v>0.113378</v>
       </c>
       <c r="O19">
-        <v>0.5291362923443786</v>
+        <v>0.0004878438300104565</v>
       </c>
       <c r="P19">
-        <v>0.5291362923443786</v>
+        <v>0.0004878438300104564</v>
       </c>
       <c r="Q19">
-        <v>363.2503093388116</v>
+        <v>5.242595495025777</v>
       </c>
       <c r="R19">
-        <v>363.2503093388116</v>
+        <v>47.183359455232</v>
       </c>
       <c r="S19">
-        <v>0.01535226368174893</v>
+        <v>0.0002150978079367234</v>
       </c>
       <c r="T19">
-        <v>0.01535226368174893</v>
+        <v>0.0002150978079367234</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,57 +1650,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.95439389772258</v>
+        <v>138.7199146666667</v>
       </c>
       <c r="H20">
-        <v>8.95439389772258</v>
+        <v>416.159744</v>
       </c>
       <c r="I20">
-        <v>0.02901381724116778</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="J20">
-        <v>0.02901381724116778</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.0395147597941582</v>
+        <v>0.07240166666666666</v>
       </c>
       <c r="N20">
-        <v>0.0395147597941582</v>
+        <v>0.217205</v>
       </c>
       <c r="O20">
-        <v>0.0005154150528879501</v>
+        <v>0.0009345915353721286</v>
       </c>
       <c r="P20">
-        <v>0.0005154150528879501</v>
+        <v>0.0009345915353721284</v>
       </c>
       <c r="Q20">
-        <v>0.3538307239707837</v>
+        <v>10.04355302172444</v>
       </c>
       <c r="R20">
-        <v>0.3538307239707837</v>
+        <v>90.39197719552</v>
       </c>
       <c r="S20">
-        <v>1.495415814783781E-05</v>
+        <v>0.0004120757058062058</v>
       </c>
       <c r="T20">
-        <v>1.495415814783781E-05</v>
+        <v>0.0004120757058062058</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.95439389772258</v>
+        <v>138.7199146666667</v>
       </c>
       <c r="H21">
-        <v>8.95439389772258</v>
+        <v>416.159744</v>
       </c>
       <c r="I21">
-        <v>0.02901381724116778</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="J21">
-        <v>0.02901381724116778</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.67374755881848</v>
+        <v>3.937153333333333</v>
       </c>
       <c r="N21">
-        <v>3.67374755881848</v>
+        <v>11.81146</v>
       </c>
       <c r="O21">
-        <v>0.04791892452817939</v>
+        <v>0.05082245130814891</v>
       </c>
       <c r="P21">
-        <v>0.04791892452817939</v>
+        <v>0.05082245130814889</v>
       </c>
       <c r="Q21">
-        <v>32.89618272245743</v>
+        <v>546.1615744295823</v>
       </c>
       <c r="R21">
-        <v>32.89618272245743</v>
+        <v>4915.454169866241</v>
       </c>
       <c r="S21">
-        <v>0.001390310918653909</v>
+        <v>0.0224083962896884</v>
       </c>
       <c r="T21">
-        <v>0.001390310918653909</v>
+        <v>0.02240839628968839</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>10.83447233333333</v>
+      </c>
+      <c r="H22">
+        <v>32.503417</v>
+      </c>
+      <c r="I22">
+        <v>0.03443690557740099</v>
+      </c>
+      <c r="J22">
+        <v>0.03443690557740099</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>32.56613966666666</v>
+      </c>
+      <c r="N22">
+        <v>97.698419</v>
+      </c>
+      <c r="O22">
+        <v>0.4203775945150413</v>
+      </c>
+      <c r="P22">
+        <v>0.4203775945150412</v>
+      </c>
+      <c r="Q22">
+        <v>352.8369392219691</v>
+      </c>
+      <c r="R22">
+        <v>3175.532452997723</v>
+      </c>
+      <c r="S22">
+        <v>0.01447650352916944</v>
+      </c>
+      <c r="T22">
+        <v>0.01447650352916944</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>10.83447233333333</v>
+      </c>
+      <c r="H23">
+        <v>32.503417</v>
+      </c>
+      <c r="I23">
+        <v>0.03443690557740099</v>
+      </c>
+      <c r="J23">
+        <v>0.03443690557740099</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>40.85529333333333</v>
+      </c>
+      <c r="N23">
+        <v>122.56588</v>
+      </c>
+      <c r="O23">
+        <v>0.5273775188114274</v>
+      </c>
+      <c r="P23">
+        <v>0.5273775188114271</v>
+      </c>
+      <c r="Q23">
+        <v>442.6455452902177</v>
+      </c>
+      <c r="R23">
+        <v>3983.80990761196</v>
+      </c>
+      <c r="S23">
+        <v>0.01816124981895314</v>
+      </c>
+      <c r="T23">
+        <v>0.01816124981895313</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>10.83447233333333</v>
+      </c>
+      <c r="H24">
+        <v>32.503417</v>
+      </c>
+      <c r="I24">
+        <v>0.03443690557740099</v>
+      </c>
+      <c r="J24">
+        <v>0.03443690557740099</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.03779266666666666</v>
+      </c>
+      <c r="N24">
+        <v>0.113378</v>
+      </c>
+      <c r="O24">
+        <v>0.0004878438300104565</v>
+      </c>
+      <c r="P24">
+        <v>0.0004878438300104564</v>
+      </c>
+      <c r="Q24">
+        <v>0.4094636014028888</v>
+      </c>
+      <c r="R24">
+        <v>3.685172412626</v>
+      </c>
+      <c r="S24">
+        <v>1.679983191058775E-05</v>
+      </c>
+      <c r="T24">
+        <v>1.679983191058775E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>10.83447233333333</v>
+      </c>
+      <c r="H25">
+        <v>32.503417</v>
+      </c>
+      <c r="I25">
+        <v>0.03443690557740099</v>
+      </c>
+      <c r="J25">
+        <v>0.03443690557740099</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.07240166666666666</v>
+      </c>
+      <c r="N25">
+        <v>0.217205</v>
+      </c>
+      <c r="O25">
+        <v>0.0009345915353721286</v>
+      </c>
+      <c r="P25">
+        <v>0.0009345915353721284</v>
+      </c>
+      <c r="Q25">
+        <v>0.784433854387222</v>
+      </c>
+      <c r="R25">
+        <v>7.059904689484999</v>
+      </c>
+      <c r="S25">
+        <v>3.218444045704821E-05</v>
+      </c>
+      <c r="T25">
+        <v>3.21844404570482E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>10.83447233333333</v>
+      </c>
+      <c r="H26">
+        <v>32.503417</v>
+      </c>
+      <c r="I26">
+        <v>0.03443690557740099</v>
+      </c>
+      <c r="J26">
+        <v>0.03443690557740099</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.937153333333333</v>
+      </c>
+      <c r="N26">
+        <v>11.81146</v>
+      </c>
+      <c r="O26">
+        <v>0.05082245130814891</v>
+      </c>
+      <c r="P26">
+        <v>0.05082245130814889</v>
+      </c>
+      <c r="Q26">
+        <v>42.65697886209111</v>
+      </c>
+      <c r="R26">
+        <v>383.91280975882</v>
+      </c>
+      <c r="S26">
+        <v>0.001750167956910783</v>
+      </c>
+      <c r="T26">
+        <v>0.001750167956910783</v>
       </c>
     </row>
   </sheetData>
